--- a/Documentation/Appendix J - Minutes of Meetings.xlsx
+++ b/Documentation/Appendix J - Minutes of Meetings.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t>Graphical Enigma Simulator</t>
   </si>
@@ -45,6 +45,372 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>Which programming language to use?</t>
+  </si>
+  <si>
+    <t>Brief Discussion</t>
+  </si>
+  <si>
+    <t>Introduction to project</t>
+  </si>
+  <si>
+    <t>Good Initial Discussion with Prof. Arnott</t>
+  </si>
+  <si>
+    <t>Good idea to choose Graphics module!</t>
+  </si>
+  <si>
+    <t>C++ will be used</t>
+  </si>
+  <si>
+    <t>Background reading</t>
+  </si>
+  <si>
+    <t>One rotor to start with - like a prototype#</t>
+  </si>
+  <si>
+    <t>Maybe 3 if time</t>
+  </si>
+  <si>
+    <t>Graphical representation, 3D?</t>
+  </si>
+  <si>
+    <t>Maybe attack maethod to guess cipher text</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>The system shall unscramble cipher text to plain text</t>
+  </si>
+  <si>
+    <t>Attach method - encrypted plain text</t>
+  </si>
+  <si>
+    <t>Decryption requirements</t>
+  </si>
+  <si>
+    <t>Reference book titles</t>
+  </si>
+  <si>
+    <t>Intro and background of final report</t>
+  </si>
+  <si>
+    <t>Gantt chart</t>
+  </si>
+  <si>
+    <t>Prototype sketches</t>
+  </si>
+  <si>
+    <t>The Hut 6 book - good bg info</t>
+  </si>
+  <si>
+    <t>Send github link</t>
+  </si>
+  <si>
+    <t>Spelling error in report!</t>
+  </si>
+  <si>
+    <t>Encrypt rotor types</t>
+  </si>
+  <si>
+    <t>26x26x26 - find out information</t>
+  </si>
+  <si>
+    <t>1 use case document</t>
+  </si>
+  <si>
+    <t>Look for Enigma simlators online</t>
+  </si>
+  <si>
+    <t>Cryptomuseum.com</t>
+  </si>
+  <si>
+    <t>Refine requirements</t>
+  </si>
+  <si>
+    <t>Minutes of meetings!</t>
+  </si>
+  <si>
+    <t>Specification and design</t>
+  </si>
+  <si>
+    <t>Specification requirements</t>
+  </si>
+  <si>
+    <t>Prototypes</t>
+  </si>
+  <si>
+    <t>Move on current letter being deciphered</t>
+  </si>
+  <si>
+    <t>Start ethics!</t>
+  </si>
+  <si>
+    <t>Reviewed ethics with Prof. Arnott</t>
+  </si>
+  <si>
+    <t>All Enigma capital E!</t>
+  </si>
+  <si>
+    <t>Change app/program to simulator!</t>
+  </si>
+  <si>
+    <t>Can also decrypt during testing</t>
+  </si>
+  <si>
+    <t>Demographic questionnaire - who?</t>
+  </si>
+  <si>
+    <t>Change group to I</t>
+  </si>
+  <si>
+    <t>Staff member</t>
+  </si>
+  <si>
+    <t>70 -&gt; 60</t>
+  </si>
+  <si>
+    <t>must -&gt; should</t>
+  </si>
+  <si>
+    <t>Give feedback to participants</t>
+  </si>
+  <si>
+    <t>Look at #7</t>
+  </si>
+  <si>
+    <t>Infosheet diag tool -&gt; simulator</t>
+  </si>
+  <si>
+    <t>John's email</t>
+  </si>
+  <si>
+    <t>project -&gt; simulator</t>
+  </si>
+  <si>
+    <t>product -&gt; simulator(SUS)</t>
+  </si>
+  <si>
+    <t>Align - agree/disagree</t>
+  </si>
+  <si>
+    <t>Specs</t>
+  </si>
+  <si>
+    <t>Another draft for next week</t>
+  </si>
+  <si>
+    <t>Just before War polish broke enigma code</t>
+  </si>
+  <si>
+    <t>Reviewed Specification requirements</t>
+  </si>
+  <si>
+    <t>Try finish use cases</t>
+  </si>
+  <si>
+    <t>Review 2nd draft of ethics</t>
+  </si>
+  <si>
+    <t>Comparing? No times - feedback</t>
+  </si>
+  <si>
+    <t>Should know which outcomes of evaluation questionnaire is</t>
+  </si>
+  <si>
+    <t>No '@' symbol on John's email - fix</t>
+  </si>
+  <si>
+    <t>Submit ethics</t>
+  </si>
+  <si>
+    <t>2 questionnaires not 1</t>
+  </si>
+  <si>
+    <t>Use case change player to user (exit)</t>
+  </si>
+  <si>
+    <t>Change all of exit to match simulator!</t>
+  </si>
+  <si>
+    <t>Start UI?</t>
+  </si>
+  <si>
+    <t>Continue BG on report</t>
+  </si>
+  <si>
+    <t>Letters to light up?</t>
+  </si>
+  <si>
+    <t>Plugboard?</t>
+  </si>
+  <si>
+    <t>Start Developer - UI</t>
+  </si>
+  <si>
+    <t>Ethics Approved!</t>
+  </si>
+  <si>
+    <t>Do some work over holidays!</t>
+  </si>
+  <si>
+    <t>Will get emailed about next meeting</t>
+  </si>
+  <si>
+    <t>Put 2:1 for mid-term report</t>
+  </si>
+  <si>
+    <t>Tooltips? When user hover overs parts?</t>
+  </si>
+  <si>
+    <t>Add plugboard at end?</t>
+  </si>
+  <si>
+    <t>Showed progress of work done</t>
+  </si>
+  <si>
+    <t>Change viewpoint?</t>
+  </si>
+  <si>
+    <t>Get wires working!</t>
+  </si>
+  <si>
+    <t>Wires completed!</t>
+  </si>
+  <si>
+    <t>Wires to glow -yes!</t>
+  </si>
+  <si>
+    <t>Currenet path</t>
+  </si>
+  <si>
+    <t>Add reflector</t>
+  </si>
+  <si>
+    <t>Both, button and live action?</t>
+  </si>
+  <si>
+    <t>Stick to one rotor - finish one rotor!</t>
+  </si>
+  <si>
+    <t>Have block for reflector?</t>
+  </si>
+  <si>
+    <t>As long as you can see current going in to reflector</t>
+  </si>
+  <si>
+    <t>Decryption! Then reflector maybe?</t>
+  </si>
+  <si>
+    <t>Decrypt working!</t>
+  </si>
+  <si>
+    <t>Need only to show current passing back to decrypted letter</t>
+  </si>
+  <si>
+    <t>Different reflector and key rotor</t>
+  </si>
+  <si>
+    <t>Green and red wires</t>
+  </si>
+  <si>
+    <t>Need to start testing soon</t>
+  </si>
+  <si>
+    <t>Bring laptop to show</t>
+  </si>
+  <si>
+    <t>show what the current key is?</t>
+  </si>
+  <si>
+    <t>Shown work done</t>
+  </si>
+  <si>
+    <t>Labels on components maybe</t>
+  </si>
+  <si>
+    <t>Help and info section explained that this is with one rotor</t>
+  </si>
+  <si>
+    <t>Testing - does this work? (angle as well of camera)</t>
+  </si>
+  <si>
+    <t>So does A cipher to X?</t>
+  </si>
+  <si>
+    <t>Reflector wire!</t>
+  </si>
+  <si>
+    <t>Don't need to fix decrypt</t>
+  </si>
+  <si>
+    <t>If A 26 time, should come back, should come back not as A!</t>
+  </si>
+  <si>
+    <t>Bug report</t>
+  </si>
+  <si>
+    <t>Improve UI</t>
+  </si>
+  <si>
+    <t>Write test strategy</t>
+  </si>
+  <si>
+    <t>10 people for evaluation</t>
+  </si>
+  <si>
+    <t>Cross over wire in reflector</t>
+  </si>
+  <si>
+    <t>Make reflector stuff rotate</t>
+  </si>
+  <si>
+    <t>Explain process - why green and red</t>
+  </si>
+  <si>
+    <t>Tweak interface and components</t>
+  </si>
+  <si>
+    <t>Test plan - include in appendix</t>
+  </si>
+  <si>
+    <t>Testing complex</t>
+  </si>
+  <si>
+    <t>Start Evaluation</t>
+  </si>
+  <si>
+    <t>Work on report</t>
+  </si>
+  <si>
+    <t>Evaluation done</t>
+  </si>
+  <si>
+    <t>Write about 3 rotor in future work</t>
+  </si>
+  <si>
+    <t>Add appendices</t>
+  </si>
+  <si>
+    <t>Done Evaluation summary</t>
+  </si>
+  <si>
+    <t>Project about develop educational tools</t>
+  </si>
+  <si>
+    <t>Illustrate Enigma</t>
+  </si>
+  <si>
+    <t>Make very clear how letter working</t>
+  </si>
+  <si>
+    <t>what I learnt.</t>
+  </si>
+  <si>
+    <t>Reflector</t>
   </si>
 </sst>
 </file>
@@ -395,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="B170" sqref="B170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -450,163 +816,978 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>41920</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.47916666666666669</v>
+      <c r="A9" s="2"/>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>41927</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.47916666666666669</v>
+      <c r="A10" s="2"/>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>41934</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0.47916666666666669</v>
+      <c r="A11" s="2"/>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>41940</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.54166666666666663</v>
+      <c r="A12" s="2"/>
+      <c r="B12" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>41947</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0.54166666666666663</v>
+      <c r="A13" s="2"/>
+      <c r="B13" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>41954</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0.54166666666666663</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>41961</v>
+        <v>41920</v>
       </c>
       <c r="B15" s="3">
-        <v>0.54166666666666663</v>
+        <v>0.47916666666666669</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>41968</v>
-      </c>
-      <c r="B16" s="3">
-        <v>0.54166666666666663</v>
+      <c r="A16" s="2"/>
+      <c r="B16" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>41976</v>
-      </c>
-      <c r="B17" s="3">
-        <v>0.5</v>
+      <c r="A17" s="2"/>
+      <c r="B17" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>42024</v>
-      </c>
-      <c r="B18" s="3">
-        <v>0.5</v>
+      <c r="A18" s="2"/>
+      <c r="B18" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>42031</v>
-      </c>
-      <c r="B19" s="3">
-        <v>0.54166666666666663</v>
+      <c r="A19" s="2"/>
+      <c r="B19" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>42038</v>
-      </c>
-      <c r="B20" s="3">
-        <v>0.5</v>
+      <c r="A20" s="2"/>
+      <c r="B20" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>42045</v>
-      </c>
-      <c r="B21" s="3">
-        <v>0.5</v>
+      <c r="A21" s="2"/>
+      <c r="B21" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>42055</v>
-      </c>
-      <c r="B22" s="3">
-        <v>0.66666666666666663</v>
+      <c r="A22" s="2"/>
+      <c r="B22" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>42060</v>
-      </c>
-      <c r="B23" s="3">
-        <v>0.54166666666666663</v>
+      <c r="A23" s="2"/>
+      <c r="B23" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>42066</v>
-      </c>
-      <c r="B24" s="3">
-        <v>0.5</v>
+      <c r="A24" s="2"/>
+      <c r="B24" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>42073</v>
-      </c>
-      <c r="B25" s="3">
-        <v>0.5</v>
-      </c>
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
+        <v>41927</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>41934</v>
+      </c>
+      <c r="B38" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="2"/>
+      <c r="B40" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
+      <c r="B41" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
+      <c r="B42" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>41940</v>
+      </c>
+      <c r="B44" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="3"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>41947</v>
+      </c>
+      <c r="B52" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
+      <c r="B55" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="2"/>
+      <c r="B57" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="2"/>
+      <c r="B58" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="2"/>
+      <c r="B62" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="2"/>
+      <c r="B63" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
+      <c r="B64" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="2"/>
+      <c r="B65" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="2"/>
+      <c r="B66" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="2"/>
+      <c r="B67" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="2"/>
+      <c r="B68" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="2"/>
+      <c r="B70" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="2"/>
+      <c r="B71" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="2"/>
+      <c r="B72" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="2"/>
+      <c r="B73" s="3"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
+        <v>41954</v>
+      </c>
+      <c r="B74" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="2"/>
+      <c r="B75" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="2"/>
+      <c r="B76" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="2"/>
+      <c r="B77" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="2"/>
+      <c r="B78" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="2"/>
+      <c r="B79" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="2"/>
+      <c r="B80" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="2"/>
+      <c r="B81" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="2"/>
+      <c r="B82" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="2"/>
+      <c r="B83" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="2"/>
+      <c r="B84" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="2"/>
+      <c r="B85" s="3"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="2">
+        <v>41961</v>
+      </c>
+      <c r="B86" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="2"/>
+      <c r="B87" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="2"/>
+      <c r="B88" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="2"/>
+      <c r="B89" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="2"/>
+      <c r="B90" s="3"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="2">
+        <v>41968</v>
+      </c>
+      <c r="B91" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="2"/>
+      <c r="B92" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="2"/>
+      <c r="B93" s="3"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="2">
+        <v>41976</v>
+      </c>
+      <c r="B94" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="2"/>
+      <c r="B95" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="2"/>
+      <c r="B96" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="2"/>
+      <c r="B97" s="3"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="2">
+        <v>42024</v>
+      </c>
+      <c r="B98" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="2"/>
+      <c r="B99" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="2"/>
+      <c r="B100" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="2"/>
+      <c r="B101" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="2"/>
+      <c r="B102" s="3"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="2">
+        <v>42031</v>
+      </c>
+      <c r="B103" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="2"/>
+      <c r="B104" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="2"/>
+      <c r="B105" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="2"/>
+      <c r="B106" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="2"/>
+      <c r="B107" s="3"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="2">
+        <v>42038</v>
+      </c>
+      <c r="B108" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="2"/>
+      <c r="B109" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="2"/>
+      <c r="B110" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="2"/>
+      <c r="B111" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="2"/>
+      <c r="B112" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="2"/>
+      <c r="B113" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="2"/>
+      <c r="B114" s="3"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="2">
+        <v>42045</v>
+      </c>
+      <c r="B115" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="2"/>
+      <c r="B116" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="2"/>
+      <c r="B117" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="2"/>
+      <c r="B118" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="2"/>
+      <c r="B119" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="2"/>
+      <c r="B120" s="3"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="2">
+        <v>42055</v>
+      </c>
+      <c r="B121" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="2"/>
+      <c r="B122" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="2"/>
+      <c r="B123" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="2"/>
+      <c r="B124" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="2"/>
+      <c r="B125" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="2"/>
+      <c r="B126" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="2"/>
+      <c r="B127" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="2"/>
+      <c r="B128" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="2"/>
+      <c r="B129" s="3"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="2">
+        <v>42060</v>
+      </c>
+      <c r="B130" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="2"/>
+      <c r="B131" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="2"/>
+      <c r="B132" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="2"/>
+      <c r="B133" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="2"/>
+      <c r="B134" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="2"/>
+      <c r="B135" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="2"/>
+      <c r="B136" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="2"/>
+      <c r="B137" s="3"/>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="2">
+        <v>42066</v>
+      </c>
+      <c r="B138" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="2"/>
+      <c r="B139" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="2"/>
+      <c r="B140" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="2"/>
+      <c r="B141" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="2"/>
+      <c r="B142" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="2"/>
+      <c r="B143" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="2"/>
+      <c r="B144" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="2"/>
+      <c r="B145" s="3"/>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="2">
+        <v>42073</v>
+      </c>
+      <c r="B146" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="2"/>
+      <c r="B147" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="2"/>
+      <c r="B148" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="2"/>
+      <c r="B149" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="2"/>
+      <c r="B150" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="2"/>
+      <c r="B151" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="2"/>
+      <c r="B152" s="3"/>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="2">
         <v>42080</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B153" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" s="2"/>
+      <c r="B154" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" s="2"/>
+      <c r="B155" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="2"/>
+      <c r="B156" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" s="2"/>
+      <c r="B157" s="3"/>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" s="2">
         <v>42088</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B158" s="3">
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="2"/>
+      <c r="B159" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" s="2"/>
+      <c r="B160" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" s="2"/>
+      <c r="B161" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" s="2"/>
+      <c r="B162" s="3"/>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" s="2">
         <v>42094</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B163" s="3">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" s="2"/>
+      <c r="B164" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" s="2"/>
+      <c r="B165" s="3"/>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" s="2">
+        <v>42123</v>
+      </c>
+      <c r="B166" s="3">
+        <v>0.48958333333333331</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B167" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B168" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B169" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B170" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B171" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
